--- a/Config/Story.xlsx
+++ b/Config/Story.xlsx
@@ -18,8 +18,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>PJ</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1:普通剧情
+2：带选择的剧情</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>剧情id</t>
   </si>
@@ -51,14 +77,119 @@
     <t>Condition</t>
   </si>
   <si>
-    <t>龙妹的出生地|龙妹的出生地|龙妹的出生地</t>
+    <t>类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不买</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>买一个</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置剧情</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrevID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个剧情</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元XXXX年|霸天学院东门右侧的小巷里|“油炸大饼，5毛一个~油炸大饼，5毛一个~”|你摸了摸裤兜，决定</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>你心满意足的吃光了大饼|在往回走的路上|突然一道亮光闪过|便失去了知觉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>你咽了咽口水，心有不舍的转身往回走|刚转进校门便饿晕了过去</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知过了多久，你醒了过来|你发现自己身处一个陌生的环境|你想知道这是什么地方吗？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>想</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>看来你好奇心很重啊|那就去四处看看吧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为你的无知，你饿死了，游戏结束</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转场景</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToScene</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +348,14 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1002,14 +1141,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1020,10 +1161,34 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1036,8 +1201,32 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1048,25 +1237,175 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100101</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1001</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>100100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>100102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>100103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>1001</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>100101</v>
+      </c>
+      <c r="F5">
+        <v>100104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>100103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>1001</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>100101</v>
+      </c>
+      <c r="F6">
+        <v>100104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>100104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>1001</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>100103</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>100105</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7">
+        <v>100106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>1001</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>100104</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>100106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>1001</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>100104</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Config/Story.xlsx
+++ b/Config/Story.xlsx
@@ -125,10 +125,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Result12</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>前置剧情</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -145,10 +141,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>公元XXXX年|霸天学院东门右侧的小巷里|“油炸大饼，5毛一个~油炸大饼，5毛一个~”|你摸了摸裤兜，决定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>你心满意足的吃光了大饼|在往回走的路上|突然一道亮光闪过|便失去了知觉</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -182,6 +174,14 @@
   </si>
   <si>
     <t>ToScene</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元XXXX年|霸天学院东门右侧的小巷里|“油炸大饼，5毛一个~|油炸大饼，5毛一个~”|你摸了摸裤兜，决定</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1164,13 +1164,13 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
@@ -1240,13 +1240,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1258,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
         <v>9</v>
@@ -1269,7 +1269,7 @@
         <v>100101</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>1001</v>
@@ -1298,7 +1298,7 @@
         <v>100102</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>1001</v>
@@ -1318,7 +1318,7 @@
         <v>100103</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>1001</v>
@@ -1338,7 +1338,7 @@
         <v>100104</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>1001</v>
@@ -1350,13 +1350,13 @@
         <v>100103</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I7">
         <v>100105</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7">
         <v>100106</v>
@@ -1367,7 +1367,7 @@
         <v>100105</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>1001</v>
@@ -1387,7 +1387,7 @@
         <v>100106</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>1001</v>

--- a/Config/Story.xlsx
+++ b/Config/Story.xlsx
@@ -24,7 +24,7 @@
     <author>PJ</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>剧情id</t>
   </si>
@@ -53,12 +53,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>所属场景</t>
-  </si>
-  <si>
-    <t>条件</t>
-  </si>
-  <si>
     <t>int32</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>Scene</t>
   </si>
   <si>
-    <t>Condition</t>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -125,14 +116,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>前置剧情</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrevID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>下一个剧情</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -149,10 +132,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>不知过了多久，你醒了过来|你发现自己身处一个陌生的环境|你想知道这是什么地方吗？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>想</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -169,19 +148,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>跳转场景</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToScene</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Result2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>公元XXXX年|霸天学院东门右侧的小巷里|“油炸大饼，5毛一个~|油炸大饼，5毛一个~”|你摸了摸裤兜，决定</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知过了多久，你醒了过来|发现自己身处一个陌生的环境|你想知道这是什么地方吗？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景条件</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1142,15 +1121,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1158,248 +1137,182 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100101</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>100102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>100103</v>
+      </c>
+      <c r="I4">
         <v>1001</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>100100</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4">
-        <v>100102</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4">
-        <v>100103</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100102</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>100101</v>
-      </c>
-      <c r="F5">
         <v>100104</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100103</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>100101</v>
-      </c>
-      <c r="F6">
         <v>100104</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100104</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>1001</v>
-      </c>
-      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>100103</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
         <v>100105</v>
       </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7">
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
         <v>100106</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>100105</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>1001</v>
-      </c>
-      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>100104</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100106</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>1001</v>
-      </c>
-      <c r="D9">
         <v>1</v>
-      </c>
-      <c r="E9">
-        <v>100104</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Story.xlsx
+++ b/Config/Story.xlsx
@@ -1255,6 +1255,9 @@
       <c r="D5">
         <v>100104</v>
       </c>
+      <c r="I5">
+        <v>1001</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1269,6 +1272,9 @@
       <c r="D6">
         <v>100104</v>
       </c>
+      <c r="I6">
+        <v>1001</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1292,6 +1298,9 @@
       <c r="H7">
         <v>100106</v>
       </c>
+      <c r="I7">
+        <v>1001</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1303,6 +1312,9 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1001</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1313,6 +1325,9 @@
       </c>
       <c r="C9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Story.xlsx
+++ b/Config/Story.xlsx
@@ -35,8 +35,9 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>1:普通剧情
-2：带选择的剧情</t>
+          <t>1：进入下一个剧情
+2：带选择的剧情
+3：跳转到场景</t>
         </r>
       </text>
     </comment>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>剧情id</t>
   </si>
@@ -96,14 +97,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>不买</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>买一个</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>结果1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -124,14 +117,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>你心满意足的吃光了大饼|在往回走的路上|突然一道亮光闪过|便失去了知觉</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>你咽了咽口水，心有不舍的转身往回走|刚转进校门便饿晕了过去</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>想</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -152,15 +137,39 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>公元XXXX年|霸天学院东门右侧的小巷里|“油炸大饼，5毛一个~|油炸大饼，5毛一个~”|你摸了摸裤兜，决定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>不知过了多久，你醒了过来|发现自己身处一个陌生的环境|你想知道这是什么地方吗？</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>场景条件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果类型1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultType1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果类型2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultType2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>很久很久以前|西边有一座富饶的城市|——噜城|噜城的南边有一个小村庄|而你就出生在这个村庄里</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在你十四岁那年|村里突然来了一个神秘人|他预言了噜城的毁灭|村民都不相信|于是把他轰走了</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>半年后噜城的皇莫名失踪|噜城也陷入一片混乱|混乱波及到了你的村庄|村里的人纷纷出逃|你也被迫离开了家乡</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1121,15 +1130,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1140,25 +1153,31 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1178,16 +1197,22 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1198,135 +1223,132 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100101</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>100102</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>100103</v>
-      </c>
-      <c r="I4">
+      <c r="K4">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100102</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>100104</v>
-      </c>
-      <c r="I5">
+        <v>100103</v>
+      </c>
+      <c r="K5">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100103</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>100104</v>
-      </c>
-      <c r="I6">
         <v>1001</v>
       </c>
+      <c r="K6">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100104</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7">
         <v>100105</v>
       </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7">
         <v>100106</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>100105</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>1001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100106</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>1001</v>
       </c>
     </row>

--- a/Config/Story.xlsx
+++ b/Config/Story.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\lulu_Survival\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unityws\lulu_Survive\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Story" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>剧情id</t>
   </si>
@@ -117,30 +117,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>想</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>不想</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>看来你好奇心很重啊|那就去四处看看吧</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为你的无知，你饿死了，游戏结束</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Result2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>不知过了多久，你醒了过来|发现自己身处一个陌生的环境|你想知道这是什么地方吗？</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>场景条件</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -161,16 +141,123 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>很久很久以前|西边有一座富饶的城市|——噜城|噜城的南边有一个小村庄|而你就出生在这个村庄里</t>
+    <t>我似乎招惹了什么诅咒</t>
+  </si>
+  <si>
+    <t>村子里的人现在看到我都会远远的躲开</t>
+  </si>
+  <si>
+    <t>那眼神好像我是令人恐怖的瘟疫</t>
+  </si>
+  <si>
+    <t>跟凶案有关吗</t>
+  </si>
+  <si>
+    <t>院子的大门紧闭着，安静的可怕</t>
+  </si>
+  <si>
+    <t>只是一夜，熟悉的房子已经失去了熟悉的气息</t>
+  </si>
+  <si>
+    <t>我一定要查清真相，让家里恢复到从前</t>
+  </si>
+  <si>
+    <t>那真的是我的幻觉吗？</t>
+  </si>
+  <si>
+    <t>我一定要搞清楚这一切</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>在你十四岁那年|村里突然来了一个神秘人|他预言了噜城的毁灭|村民都不相信|于是把他轰走了</t>
+    <t>如果真实发生过，一定会在现场留下线索</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>半年后噜城的皇莫名失踪|噜城也陷入一片混乱|混乱波及到了你的村庄|村里的人纷纷出逃|你也被迫离开了家乡</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>破旧的大门松垮垮的挂在门框上</t>
+  </si>
+  <si>
+    <t>庭院里长满的杂草</t>
+  </si>
+  <si>
+    <t>院子荒芜了有些年头了</t>
+  </si>
+  <si>
+    <t>原来二叔二婶也已经离开了很久很久</t>
+  </si>
+  <si>
+    <t>小强到底去到了哪里</t>
+  </si>
+  <si>
+    <t>我是一个大学生，可是现在却成了一个逃犯</t>
+  </si>
+  <si>
+    <t>真希望一切都是幻觉</t>
+  </si>
+  <si>
+    <t>真希望今天下午没有来后山，没有目睹那场诡异的凶案…</t>
+  </si>
+  <si>
+    <t>下午，我和死党在后山吹风</t>
+  </si>
+  <si>
+    <t>久别重逢，吹着风，喝着酒，回忆着童年的点滴，有说不完的话</t>
+  </si>
+  <si>
+    <t>微醺中，几个穿着时尚的青年，来到山下的荒井</t>
+  </si>
+  <si>
+    <t>接着，他们把其中一个打扮怪异的女人推到井中</t>
+  </si>
+  <si>
+    <t>没有太多挣扎，只是几秒钟的时间，碧绿的水面就只留下一抹暗红色的布</t>
+  </si>
+  <si>
+    <t>警察终于走了</t>
+  </si>
+  <si>
+    <t>他们带走了我的父母</t>
+  </si>
+  <si>
+    <t>他们之间发生了什么</t>
+  </si>
+  <si>
+    <t>村子里的祠堂，一直是村里最庄严神圣的地方</t>
+  </si>
+  <si>
+    <t>祠堂的大门虚掩着，幽黑的</t>
+  </si>
+  <si>
+    <t>昨天这里被当作了警察的临时办公室，之后我的父母就被带走了</t>
+  </si>
+  <si>
+    <t>我要弄清楚昨晚他们发生了什么</t>
+  </si>
+  <si>
+    <t>并排的三口废弃水晶，表面看起来是几汪墨绿的水洼</t>
+  </si>
+  <si>
+    <t>距离废弃祠堂不到几米远</t>
+  </si>
+  <si>
+    <t>井口周围长满了杂草和一些断裂的枯树枯枝</t>
+  </si>
+  <si>
+    <t>井水浅浅的蔓延出来，把井口周围弄的泥泞一片，上面现在很多脚印</t>
+  </si>
+  <si>
+    <t>山坳里矗立着一些倒塌的土墙，里面长满了杂草</t>
+  </si>
+  <si>
+    <t>从自己记事起这里一直这样荒废着</t>
+  </si>
+  <si>
+    <t>村里的大人一直不让我们这些小孩子来这里玩耍</t>
+  </si>
+  <si>
+    <t>微风吹过，长草微摇</t>
+  </si>
+  <si>
+    <t>这个生我养我的村子，似乎开始讲述那些我永远也不敢相信的秘密</t>
   </si>
 </sst>
 </file>
@@ -771,9 +858,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1130,226 +1220,760 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="100" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>111101</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>111102</v>
+      </c>
+      <c r="K4" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>111102</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>111103</v>
+      </c>
+      <c r="K5" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>111103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>111104</v>
+      </c>
+      <c r="K6" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>111104</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="D7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>112101</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>100101</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>112102</v>
+      </c>
+      <c r="K8" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>112102</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>100102</v>
-      </c>
-      <c r="K4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>100102</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>112103</v>
+      </c>
+      <c r="K9" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>112103</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>100103</v>
-      </c>
-      <c r="K5">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>100103</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>112201</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>1001</v>
-      </c>
-      <c r="K6">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>100104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>100105</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7">
-        <v>100106</v>
-      </c>
-      <c r="K7">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>100105</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>100106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1001</v>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>112202</v>
+      </c>
+      <c r="K11" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>112202</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>112203</v>
+      </c>
+      <c r="K12" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>112203</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>113101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>113102</v>
+      </c>
+      <c r="K14" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>113102</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>113103</v>
+      </c>
+      <c r="K15" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>113103</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>113104</v>
+      </c>
+      <c r="K16" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>113104</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>113105</v>
+      </c>
+      <c r="K17" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>113105</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>114101</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>114102</v>
+      </c>
+      <c r="K19" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>114102</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>114103</v>
+      </c>
+      <c r="K20" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>114103</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>114104</v>
+      </c>
+      <c r="K21" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>114104</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>115101</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>115102</v>
+      </c>
+      <c r="K23" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>115102</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>115103</v>
+      </c>
+      <c r="K24" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>115103</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>115201</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>115202</v>
+      </c>
+      <c r="K26" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>115202</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>115203</v>
+      </c>
+      <c r="K27" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>115203</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>115204</v>
+      </c>
+      <c r="K28" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>115204</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>115205</v>
+      </c>
+      <c r="K29" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>115205</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>115301</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>115302</v>
+      </c>
+      <c r="K31" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>115302</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>115303</v>
+      </c>
+      <c r="K32" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>115303</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>116101</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>116102</v>
+      </c>
+      <c r="K34" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>116102</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>116103</v>
+      </c>
+      <c r="K35" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>116103</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>116104</v>
+      </c>
+      <c r="K36" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>116104</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>117101</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>117102</v>
+      </c>
+      <c r="K38" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>117102</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>117103</v>
+      </c>
+      <c r="K39" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>117103</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>117104</v>
+      </c>
+      <c r="K40" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>117104</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>117105</v>
+      </c>
+      <c r="K41" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>117105</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Story.xlsx
+++ b/Config/Story.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unityws\lulu_Survive\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\lulu_Survival\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>剧情id</t>
   </si>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>下一个剧情</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>NextID</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -141,123 +137,39 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>我似乎招惹了什么诅咒</t>
-  </si>
-  <si>
-    <t>村子里的人现在看到我都会远远的躲开</t>
-  </si>
-  <si>
-    <t>那眼神好像我是令人恐怖的瘟疫</t>
-  </si>
-  <si>
-    <t>跟凶案有关吗</t>
-  </si>
-  <si>
-    <t>院子的大门紧闭着，安静的可怕</t>
-  </si>
-  <si>
-    <t>只是一夜，熟悉的房子已经失去了熟悉的气息</t>
-  </si>
-  <si>
-    <t>我一定要查清真相，让家里恢复到从前</t>
-  </si>
-  <si>
-    <t>那真的是我的幻觉吗？</t>
-  </si>
-  <si>
-    <t>我一定要搞清楚这一切</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果真实发生过，一定会在现场留下线索</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>破旧的大门松垮垮的挂在门框上</t>
-  </si>
-  <si>
-    <t>庭院里长满的杂草</t>
-  </si>
-  <si>
-    <t>院子荒芜了有些年头了</t>
-  </si>
-  <si>
-    <t>原来二叔二婶也已经离开了很久很久</t>
-  </si>
-  <si>
-    <t>小强到底去到了哪里</t>
-  </si>
-  <si>
-    <t>我是一个大学生，可是现在却成了一个逃犯</t>
-  </si>
-  <si>
-    <t>真希望一切都是幻觉</t>
-  </si>
-  <si>
-    <t>真希望今天下午没有来后山，没有目睹那场诡异的凶案…</t>
-  </si>
-  <si>
-    <t>下午，我和死党在后山吹风</t>
-  </si>
-  <si>
-    <t>久别重逢，吹着风，喝着酒，回忆着童年的点滴，有说不完的话</t>
-  </si>
-  <si>
-    <t>微醺中，几个穿着时尚的青年，来到山下的荒井</t>
-  </si>
-  <si>
-    <t>接着，他们把其中一个打扮怪异的女人推到井中</t>
-  </si>
-  <si>
-    <t>没有太多挣扎，只是几秒钟的时间，碧绿的水面就只留下一抹暗红色的布</t>
-  </si>
-  <si>
-    <t>警察终于走了</t>
-  </si>
-  <si>
-    <t>他们带走了我的父母</t>
-  </si>
-  <si>
-    <t>他们之间发生了什么</t>
-  </si>
-  <si>
-    <t>村子里的祠堂，一直是村里最庄严神圣的地方</t>
-  </si>
-  <si>
-    <t>祠堂的大门虚掩着，幽黑的</t>
-  </si>
-  <si>
-    <t>昨天这里被当作了警察的临时办公室，之后我的父母就被带走了</t>
-  </si>
-  <si>
-    <t>我要弄清楚昨晚他们发生了什么</t>
-  </si>
-  <si>
-    <t>并排的三口废弃水晶，表面看起来是几汪墨绿的水洼</t>
-  </si>
-  <si>
-    <t>距离废弃祠堂不到几米远</t>
-  </si>
-  <si>
-    <t>井口周围长满了杂草和一些断裂的枯树枯枝</t>
-  </si>
-  <si>
-    <t>井水浅浅的蔓延出来，把井口周围弄的泥泞一片，上面现在很多脚印</t>
-  </si>
-  <si>
-    <t>山坳里矗立着一些倒塌的土墙，里面长满了杂草</t>
-  </si>
-  <si>
-    <t>从自己记事起这里一直这样荒废着</t>
-  </si>
-  <si>
-    <t>村里的大人一直不让我们这些小孩子来这里玩耍</t>
-  </si>
-  <si>
-    <t>微风吹过，长草微摇</t>
-  </si>
-  <si>
-    <t>这个生我养我的村子，似乎开始讲述那些我永远也不敢相信的秘密</t>
+    <t>我似乎招惹了什么诅咒|村子里的人现在看到我都会远远的躲开|那眼神好像我是令人恐怖的瘟疫|跟凶案有关吗</t>
+  </si>
+  <si>
+    <t>院子的大门紧闭着，安静的可怕|只是一夜，熟悉的房子已经失去了熟悉的气息|我一定要查清真相，让家里恢复到从前</t>
+  </si>
+  <si>
+    <t>那真的是我的幻觉吗？|我一定要搞清楚这一切|如果真实发生过，一定会在现场留下线索</t>
+  </si>
+  <si>
+    <t>破旧的大门松垮垮的挂在门框上|庭院里长满的杂草|院子荒芜了有些年头了|原来二叔二婶也已经离开了很久很久|小强到底去到了哪里</t>
+  </si>
+  <si>
+    <t>村子里的祠堂，一直是村里最庄严神圣的地方|祠堂的大门虚掩着，幽黑的|昨天这里被当作了警察的临时办公室，之后我的父母就被带走了|我要弄清楚昨晚他们发生了什么</t>
+  </si>
+  <si>
+    <t>我是一个大学生，可是现在却成了一个逃犯|真希望一切都是幻觉|真希望今天下午没有来后山，没有目睹那场诡异的凶案…</t>
+  </si>
+  <si>
+    <t>警察终于走了|他们带走了我的父母|他们之间发生了什么</t>
+  </si>
+  <si>
+    <t>并排的三口废弃水晶，表面看起来是几汪墨绿的水洼|距离废弃祠堂不到几米远|井口周围长满了杂草和一些断裂的枯树枯枝|井水浅浅的蔓延出来，把井口周围弄的泥泞一片，上面现在很多脚印</t>
+  </si>
+  <si>
+    <t>山坳里矗立着一些倒塌的土墙，里面长满了杂草|从自己记事起这里一直这样荒废着|村里的大人一直不让我们这些小孩子来这里玩耍|微风吹过，长草微摇|这个生我养我的村子，似乎开始讲述那些我永远也不敢相信的秘密</t>
+  </si>
+  <si>
+    <t>下一个剧情/场景</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午，我和死党在后山吹风|久别重逢，吹着风，喝着酒，回忆着童年的点滴，有说不完的话|微醺中，几个穿着时尚的青年，来到山下的荒井|接着，他们把其中一个打扮怪异的女人推到井中|没有太多挣扎，只是几秒钟的时间，碧绿的水面就只留下一抹暗红色的布</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -858,11 +770,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,22 +1135,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="100" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="1"/>
+    <col min="2" max="2" width="42.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,13 +1163,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -1261,16 +1178,16 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1305,7 +1222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1316,13 +1233,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
@@ -1331,650 +1248,194 @@
         <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>111101</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>11101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>111102</v>
+        <v>111</v>
       </c>
       <c r="K4" s="1">
         <v>111</v>
       </c>
+      <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>111102</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>11201</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>112</v>
+      </c>
+      <c r="K5" s="1">
+        <v>112</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>11202</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>111103</v>
-      </c>
-      <c r="K5" s="1">
-        <v>111</v>
-      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>113</v>
+      </c>
+      <c r="K6" s="1">
+        <v>113</v>
+      </c>
+      <c r="M6" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>111103</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>11301</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>111104</v>
-      </c>
-      <c r="K6" s="1">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>111104</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>1001</v>
+        <v>113</v>
       </c>
       <c r="K7" s="1">
-        <v>111</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>112101</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>11401</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>114</v>
+      </c>
+      <c r="K8" s="1">
+        <v>114</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>11501</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>112102</v>
-      </c>
-      <c r="K8" s="1">
-        <v>112</v>
-      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>115</v>
+      </c>
+      <c r="K9" s="1">
+        <v>115</v>
+      </c>
+      <c r="M9" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>112102</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>11502</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>115</v>
+      </c>
+      <c r="K10" s="1">
+        <v>115</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>11503</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>112103</v>
-      </c>
-      <c r="K9" s="1">
-        <v>112</v>
-      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>115</v>
+      </c>
+      <c r="K11" s="1">
+        <v>115</v>
+      </c>
+      <c r="M11" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>112103</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11601</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>112</v>
-      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>116</v>
+      </c>
+      <c r="K12" s="1">
+        <v>116</v>
+      </c>
+      <c r="M12" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>112201</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11701</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>112202</v>
-      </c>
-      <c r="K11" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>112202</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>112203</v>
-      </c>
-      <c r="K12" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>112203</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>117</v>
       </c>
       <c r="K13" s="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>113101</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>113102</v>
-      </c>
-      <c r="K14" s="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>113102</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>113103</v>
-      </c>
-      <c r="K15" s="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>113103</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>113104</v>
-      </c>
-      <c r="K16" s="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>113104</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>113105</v>
-      </c>
-      <c r="K17" s="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>113105</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>114101</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>114102</v>
-      </c>
-      <c r="K19" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>114102</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>114103</v>
-      </c>
-      <c r="K20" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>114103</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>114104</v>
-      </c>
-      <c r="K21" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>114104</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>115101</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>115102</v>
-      </c>
-      <c r="K23" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>115102</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>115103</v>
-      </c>
-      <c r="K24" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>115103</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>115201</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>115202</v>
-      </c>
-      <c r="K26" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>115202</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>115203</v>
-      </c>
-      <c r="K27" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>115203</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>115204</v>
-      </c>
-      <c r="K28" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>115204</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>115205</v>
-      </c>
-      <c r="K29" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>115205</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>115301</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>115302</v>
-      </c>
-      <c r="K31" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>115302</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>115303</v>
-      </c>
-      <c r="K32" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>115303</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>116101</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>116102</v>
-      </c>
-      <c r="K34" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>116102</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>116103</v>
-      </c>
-      <c r="K35" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>116103</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>116104</v>
-      </c>
-      <c r="K36" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>116104</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>117101</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>117102</v>
-      </c>
-      <c r="K38" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>117102</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>117103</v>
-      </c>
-      <c r="K39" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>117103</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>117104</v>
-      </c>
-      <c r="K40" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>117104</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>117105</v>
-      </c>
-      <c r="K41" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>117105</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1">
-        <v>117</v>
-      </c>
+      <c r="M13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Config/Story.xlsx
+++ b/Config/Story.xlsx
@@ -770,7 +770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,6 +778,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,7 +1141,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C12" sqref="A1:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1153,286 +1156,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>11101</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>111</v>
       </c>
-      <c r="K4" s="1">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <v>111</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>11201</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>112</v>
       </c>
-      <c r="K5" s="1">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
         <v>112</v>
       </c>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>11202</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>113</v>
       </c>
-      <c r="K6" s="1">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
         <v>113</v>
       </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>11301</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>113</v>
       </c>
-      <c r="K7" s="1">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
         <v>113</v>
       </c>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>11401</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>114</v>
       </c>
-      <c r="K8" s="1">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <v>114</v>
       </c>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>11501</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>115</v>
       </c>
-      <c r="K9" s="1">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
         <v>115</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>11502</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>115</v>
       </c>
-      <c r="K10" s="1">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
         <v>115</v>
       </c>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>11503</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>115</v>
       </c>
-      <c r="K11" s="1">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
         <v>115</v>
       </c>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11601</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>116</v>
       </c>
-      <c r="K12" s="1">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
         <v>116</v>
       </c>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>11701</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>3</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>117</v>
       </c>
-      <c r="K13" s="1">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
         <v>117</v>
       </c>
       <c r="M13" s="2"/>

--- a/Config/Story.xlsx
+++ b/Config/Story.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Story" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>剧情id</t>
   </si>
@@ -137,38 +137,33 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>我似乎招惹了什么诅咒|村子里的人现在看到我都会远远的躲开|那眼神好像我是令人恐怖的瘟疫|跟凶案有关吗</t>
-  </si>
-  <si>
-    <t>院子的大门紧闭着，安静的可怕|只是一夜，熟悉的房子已经失去了熟悉的气息|我一定要查清真相，让家里恢复到从前</t>
-  </si>
-  <si>
-    <t>那真的是我的幻觉吗？|我一定要搞清楚这一切|如果真实发生过，一定会在现场留下线索</t>
-  </si>
-  <si>
-    <t>破旧的大门松垮垮的挂在门框上|庭院里长满的杂草|院子荒芜了有些年头了|原来二叔二婶也已经离开了很久很久|小强到底去到了哪里</t>
-  </si>
-  <si>
-    <t>村子里的祠堂，一直是村里最庄严神圣的地方|祠堂的大门虚掩着，幽黑的|昨天这里被当作了警察的临时办公室，之后我的父母就被带走了|我要弄清楚昨晚他们发生了什么</t>
-  </si>
-  <si>
-    <t>我是一个大学生，可是现在却成了一个逃犯|真希望一切都是幻觉|真希望今天下午没有来后山，没有目睹那场诡异的凶案…</t>
-  </si>
-  <si>
-    <t>警察终于走了|他们带走了我的父母|他们之间发生了什么</t>
-  </si>
-  <si>
-    <t>并排的三口废弃水晶，表面看起来是几汪墨绿的水洼|距离废弃祠堂不到几米远|井口周围长满了杂草和一些断裂的枯树枯枝|井水浅浅的蔓延出来，把井口周围弄的泥泞一片，上面现在很多脚印</t>
-  </si>
-  <si>
-    <t>山坳里矗立着一些倒塌的土墙，里面长满了杂草|从自己记事起这里一直这样荒废着|村里的大人一直不让我们这些小孩子来这里玩耍|微风吹过，长草微摇|这个生我养我的村子，似乎开始讲述那些我永远也不敢相信的秘密</t>
-  </si>
-  <si>
     <t>下一个剧情/场景</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>下午，我和死党在后山吹风|久别重逢，吹着风，喝着酒，回忆着童年的点滴，有说不完的话|微醺中，几个穿着时尚的青年，来到山下的荒井|接着，他们把其中一个打扮怪异的女人推到井中|没有太多挣扎，只是几秒钟的时间，碧绿的水面就只留下一抹暗红色的布</t>
+    <t>1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11102</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11103</t>
+  </si>
+  <si>
+    <t>11104</t>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1141,7 +1136,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:K13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1161,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
@@ -1264,14 +1259,14 @@
       <c r="A4" s="3">
         <v>11101</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
+      <c r="B4" s="3">
+        <v>11101</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
-        <v>111</v>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1279,23 +1274,23 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3">
-        <v>111</v>
+      <c r="K4" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>11201</v>
+      <c r="A5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>112</v>
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1303,23 +1298,23 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3">
-        <v>112</v>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>11202</v>
+      <c r="A6" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>113</v>
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1327,23 +1322,23 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3">
-        <v>113</v>
+      <c r="K6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>11301</v>
+      <c r="A7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>113</v>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1351,153 +1346,93 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3">
-        <v>113</v>
+      <c r="K7" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>11401</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>114</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <v>114</v>
-      </c>
+      <c r="K8" s="3"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>11501</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3">
-        <v>115</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>115</v>
-      </c>
+      <c r="K9" s="3"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>11502</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>115</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3">
-        <v>115</v>
-      </c>
+      <c r="K10" s="3"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>11503</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>115</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3">
-        <v>115</v>
-      </c>
+      <c r="K11" s="3"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11601</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>116</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3">
-        <v>116</v>
-      </c>
+      <c r="K12" s="3"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>11701</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3">
-        <v>117</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3">
-        <v>117</v>
-      </c>
+      <c r="K13" s="3"/>
       <c r="M13" s="2"/>
     </row>
   </sheetData>
